--- a/inst/extdata/examples/xlsx/regular-text-labels.xlsx
+++ b/inst/extdata/examples/xlsx/regular-text-labels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -673,7 +679,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,19 +705,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -714,7 +728,7 @@
         <v>95.8</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
         <v>97.4</v>
@@ -731,7 +745,7 @@
         <v>95.7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
         <v>96.2</v>
@@ -748,7 +762,7 @@
         <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>95.5</v>
@@ -765,7 +779,7 @@
         <v>95.4</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>96.2</v>
@@ -782,7 +796,7 @@
         <v>96.4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>96.8</v>
@@ -799,7 +813,7 @@
         <v>95.7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>96.1</v>
@@ -816,7 +830,7 @@
         <v>96.4</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>96.6</v>
@@ -833,7 +847,7 @@
         <v>96.4</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>96.2</v>
@@ -850,7 +864,7 @@
         <v>96.3</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>96.8</v>
@@ -867,7 +881,7 @@
         <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>96.3</v>
@@ -884,7 +898,7 @@
         <v>96.8</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
         <v>96.1</v>
@@ -901,7 +915,7 @@
         <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
         <v>96.9</v>
@@ -918,7 +932,7 @@
         <v>96.6</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>97.4</v>
@@ -935,7 +949,7 @@
         <v>96.6</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
         <v>97.3</v>
@@ -952,7 +966,7 @@
         <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
         <v>97.3</v>
@@ -969,7 +983,7 @@
         <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="n">
         <v>97.7</v>
@@ -986,7 +1000,7 @@
         <v>96.8</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" t="n">
         <v>97.1</v>
@@ -1003,7 +1017,7 @@
         <v>97.2</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" t="n">
         <v>97</v>
@@ -1020,7 +1034,7 @@
         <v>96.5</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" t="n">
         <v>97.3</v>
@@ -1037,7 +1051,7 @@
         <v>97.8</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" t="n">
         <v>98.9</v>
@@ -1054,7 +1068,7 @@
         <v>97.2</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" t="n">
         <v>96.4</v>
@@ -1071,7 +1085,7 @@
         <v>97.7</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" t="n">
         <v>98</v>
@@ -1088,7 +1102,7 @@
         <v>97.9</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
         <v>98.6</v>
@@ -1105,7 +1119,7 @@
         <v>98.5</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D25" t="n">
         <v>98.9</v>
@@ -1122,7 +1136,7 @@
         <v>99.2</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
         <v>99.8</v>
@@ -1139,7 +1153,7 @@
         <v>99.1</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27" t="n">
         <v>100.4</v>
@@ -1156,7 +1170,7 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" t="n">
         <v>99.9</v>
@@ -1173,7 +1187,7 @@
         <v>99.7</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D29" t="n">
         <v>99.8</v>
@@ -1190,7 +1204,7 @@
         <v>100.1</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
         <v>99</v>
@@ -1207,7 +1221,7 @@
         <v>100.1</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D31" t="n">
         <v>100.6</v>
@@ -1224,7 +1238,7 @@
         <v>100.7</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D32" t="n">
         <v>99.5</v>
@@ -1241,7 +1255,7 @@
         <v>100.5</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D33" t="n">
         <v>100.3</v>
@@ -1258,7 +1272,7 @@
         <v>100.4</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D34" t="n">
         <v>100.6</v>
@@ -1275,7 +1289,7 @@
         <v>100.3</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
         <v>99.7</v>
@@ -1292,7 +1306,7 @@
         <v>99.6</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D36" t="n">
         <v>99</v>
@@ -1309,7 +1323,7 @@
         <v>101.1</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" t="n">
         <v>101.2</v>
@@ -1326,7 +1340,7 @@
         <v>101.2</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D38" t="n">
         <v>100.2</v>
@@ -1343,7 +1357,7 @@
         <v>101.4</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D39" t="n">
         <v>101.3</v>
@@ -1360,7 +1374,7 @@
         <v>100.8</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D40" t="n">
         <v>100.2</v>
@@ -1377,7 +1391,7 @@
         <v>100.9</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D41" t="n">
         <v>99.5</v>
@@ -1394,7 +1408,7 @@
         <v>101.3</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D42" t="n">
         <v>101.3</v>
@@ -1411,7 +1425,7 @@
         <v>101.1</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D43" t="n">
         <v>101</v>
@@ -1428,7 +1442,7 @@
         <v>101.9</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D44" t="n">
         <v>101.7</v>
@@ -1445,7 +1459,7 @@
         <v>101.9</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D45" t="n">
         <v>101.6</v>
@@ -1462,7 +1476,7 @@
         <v>101.5</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D46" t="n">
         <v>101.1</v>
@@ -1479,7 +1493,7 @@
         <v>103.3</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D47" t="n">
         <v>104.1</v>
@@ -1496,7 +1510,7 @@
         <v>102.2</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D48" t="n">
         <v>102.8</v>
@@ -1513,7 +1527,7 @@
         <v>102.8</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D49" t="n">
         <v>102.8</v>
@@ -1530,7 +1544,7 @@
         <v>102.8</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D50" t="n">
         <v>103.9</v>
@@ -1547,7 +1561,7 @@
         <v>102.9</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D51" t="n">
         <v>102.7</v>
@@ -1564,7 +1578,7 @@
         <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D52" t="n">
         <v>104.2</v>
@@ -1581,7 +1595,7 @@
         <v>103.5</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D53" t="n">
         <v>103.5</v>
@@ -1598,7 +1612,7 @@
         <v>104.2</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D54" t="n">
         <v>104.4</v>
@@ -1615,7 +1629,7 @@
         <v>104.2</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D55" t="n">
         <v>104.7</v>
@@ -1632,7 +1646,7 @@
         <v>104.4</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D56" t="n">
         <v>104.9</v>
@@ -1649,7 +1663,7 @@
         <v>103.9</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D57" t="n">
         <v>104.7</v>
@@ -1666,7 +1680,7 @@
         <v>105.3</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D58" t="n">
         <v>105.5</v>
@@ -1683,7 +1697,7 @@
         <v>103.8</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D59" t="n">
         <v>105.2</v>
@@ -1700,7 +1714,7 @@
         <v>105.6</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D60" t="n">
         <v>106.3</v>
@@ -1717,7 +1731,7 @@
         <v>105.5</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D61" t="n">
         <v>105.6</v>
@@ -1734,7 +1748,7 @@
         <v>104.7</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D62" t="n">
         <v>106.9</v>
@@ -1751,7 +1765,7 @@
         <v>104.7</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D63" t="n">
         <v>105.4</v>
@@ -1768,7 +1782,7 @@
         <v>105.6</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D64" t="n">
         <v>106.5</v>
@@ -1785,7 +1799,7 @@
         <v>105.7</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D65" t="n">
         <v>108.4</v>
@@ -1802,7 +1816,7 @@
         <v>106.1</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D66" t="n">
         <v>107.8</v>
@@ -1819,7 +1833,7 @@
         <v>105.9</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D67" t="n">
         <v>107.6</v>
@@ -1836,7 +1850,7 @@
         <v>105.8</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D68" t="n">
         <v>108.5</v>
@@ -1853,7 +1867,7 @@
         <v>106.1</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D69" t="n">
         <v>108.2</v>
@@ -1870,7 +1884,7 @@
         <v>105.7</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D70" t="n">
         <v>107.7</v>
@@ -1887,7 +1901,7 @@
         <v>106.7</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D71" t="n">
         <v>108.2</v>
@@ -1904,7 +1918,7 @@
         <v>107.1</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D72" t="n">
         <v>109.9</v>
@@ -1921,7 +1935,7 @@
         <v>106.5</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D73" t="n">
         <v>107.4</v>
@@ -1938,7 +1952,7 @@
         <v>107.2</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D74" t="n">
         <v>108</v>
@@ -1955,7 +1969,7 @@
         <v>107.7</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D75" t="n">
         <v>108.7</v>
@@ -1972,7 +1986,7 @@
         <v>107.8</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D76" t="n">
         <v>109.8</v>
@@ -1989,7 +2003,7 @@
         <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D77" t="n">
         <v>110.2</v>
@@ -2006,7 +2020,7 @@
         <v>107.7</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D78" t="n">
         <v>109.9</v>
@@ -2023,7 +2037,7 @@
         <v>108.7</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D79" t="n">
         <v>110.1</v>
@@ -2040,7 +2054,7 @@
         <v>108.3</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D80" t="n">
         <v>110</v>
@@ -2057,7 +2071,7 @@
         <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D81" t="n">
         <v>109.2</v>
@@ -2074,7 +2088,7 @@
         <v>108.8</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D82" t="n">
         <v>110.5</v>
@@ -2091,7 +2105,7 @@
         <v>108.7</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D83" t="n">
         <v>110.1</v>
@@ -2108,7 +2122,7 @@
         <v>109.7</v>
       </c>
       <c r="C84" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D84" t="n">
         <v>110.8</v>
@@ -2125,7 +2139,7 @@
         <v>108.6</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D85" t="n">
         <v>111.4</v>
@@ -2142,7 +2156,7 @@
         <v>109.5</v>
       </c>
       <c r="C86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D86" t="n">
         <v>110.2</v>
@@ -2159,7 +2173,7 @@
         <v>110.3</v>
       </c>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D87" t="n">
         <v>111.8</v>
@@ -2176,7 +2190,7 @@
         <v>98.1</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D88" t="n">
         <v>110.1</v>
